--- a/biology/Botanique/Arboretum_d'Entrebin/Arboretum_d'Entrebin.xlsx
+++ b/biology/Botanique/Arboretum_d'Entrebin/Arboretum_d'Entrebin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arboretum_d%27Entrebin</t>
+          <t>Arboretum_d'Entrebin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arboretum d'Entrebin, officiellement Lo parque d'Euntrebeun (en valdôtain), se situe à la localité du même nom, sur la colline d'Aoste, à une altitude de 971 mètres.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arboretum_d%27Entrebin</t>
+          <t>Arboretum_d'Entrebin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La zone où se trouve l'arboretum d'Entrebin appartient à la commune d'Aoste depuis 1929, lorsqu'elle a été achetée pour fournir l'eau à l'aqueduc urbain.
 Une importante œuvre d'aménagement du bois est entamée à partir de 1999, ayant pour but d'atteindre plus de 200 espèces végétales. Une rochère (jardin des roches) est également présente.
